--- a/Alizhou.Test/OutPut/execl/ExeclImportExportTest.xlsx
+++ b/Alizhou.Test/OutPut/execl/ExeclImportExportTest.xlsx
@@ -32,7 +32,7 @@
     <t>地址0</t>
   </si>
   <si>
-    <t>17783042962</t>
+    <t>1778304296217783042962177830429621778304296217783042962</t>
   </si>
   <si>
     <t>张三1</t>
@@ -671,7 +671,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table59893" displayName="Table59893" ref="A1:D101" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table82235" displayName="Table82235" ref="A1:D101" headerRowCount="1">
   <autoFilter ref="A1:D101"/>
   <tableColumns count="4">
     <tableColumn id="1" name="姓名"/>
@@ -690,6 +690,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.55964660644531" customWidth="1"/>
+    <col min="4" max="4" width="61.5638198852539" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
